--- a/main/cmy2xyz/results/polynomial_regression_results.xlsx
+++ b/main/cmy2xyz/results/polynomial_regression_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,10 +439,26 @@
           <t>Mean Euclidean error</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Median Euclidean error</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max Euclidean error</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1.505787918683362</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.209928239889845</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.535945177013454</v>
       </c>
     </row>
   </sheetData>
